--- a/QC-template-ChIP-seq.xlsx
+++ b/QC-template-ChIP-seq.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/hm1412_ic_ac_uk/Documents/Cebola-lab-Hannah/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/hm1412_ic_ac_uk/Documents/Cebola-lab-Hannah/GitHub/ChIPmentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{1F1E5FFD-D1C0-6744-907C-1C5D9B51E855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3B37B380-5F4D-9D41-9D6E-53304AA4B21C}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{1F1E5FFD-D1C0-6744-907C-1C5D9B51E855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{28540DC8-CC05-D343-B7E2-E652CB7A1EF0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9913FB4D-1F40-F148-BEC8-326FF812BE85}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{9913FB4D-1F40-F148-BEC8-326FF812BE85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,37 +406,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -472,6 +448,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -790,13 +790,14 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="3" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
@@ -820,185 +821,185 @@
     <row r="3" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" s="22" customFormat="1" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" s="14" customFormat="1" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
+      <c r="A13" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/QC-template-ChIP-seq.xlsx
+++ b/QC-template-ChIP-seq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/hm1412_ic_ac_uk/Documents/Cebola-lab-Hannah/GitHub/ChIPmentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{1F1E5FFD-D1C0-6744-907C-1C5D9B51E855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{28540DC8-CC05-D343-B7E2-E652CB7A1EF0}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{1F1E5FFD-D1C0-6744-907C-1C5D9B51E855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4E04B8F9-7780-9F4E-A57D-2A4C10D61823}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{9913FB4D-1F40-F148-BEC8-326FF812BE85}"/>
   </bookViews>
@@ -34,29 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>The ENCODE recommended values are highlighted in yellow.</t>
   </si>
   <si>
-    <t>% of mapped reads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% mtDNA </t>
-  </si>
-  <si>
-    <t>% duplicates (excluding mtDNA) (optical)</t>
-  </si>
-  <si>
     <t>PCR bottleneck coefficients</t>
   </si>
   <si>
     <t xml:space="preserve">Sample </t>
   </si>
   <si>
-    <t>Total number of sequenced reads</t>
-  </si>
-  <si>
     <t>Estimated library size</t>
   </si>
   <si>
@@ -90,41 +78,29 @@
     <t xml:space="preserve">20M (narrow), 45M (broad) </t>
   </si>
   <si>
-    <r>
-      <t>Total number of uniquely mapped</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> fragments </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>(after removing duplicates)</t>
-    </r>
-  </si>
-  <si>
     <t>&gt;0.3 ideal, &gt;0.3 acceptable</t>
   </si>
   <si>
     <t>See this link</t>
+  </si>
+  <si>
+    <t>% of mapped fragments</t>
+  </si>
+  <si>
+    <t>Total number of sequenced fragments</t>
+  </si>
+  <si>
+    <t>Total number of uniquely mapped fragments (after removing duplicates)</t>
+  </si>
+  <si>
+    <t>% duplicates (optical)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,13 +144,6 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -400,12 +369,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -434,9 +402,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -449,12 +414,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -472,6 +431,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -787,231 +747,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46941888-A80E-A442-A25B-73E78E67829C}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" s="13" customFormat="1" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" s="14" customFormat="1" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{6FE6D914-53E2-2A46-AA37-62459A0E338F}"/>
-    <hyperlink ref="L5" r:id="rId2" display="https://www.encodeproject.org/atac-seq/" xr:uid="{AC952ABC-3176-A547-9712-3B4F0E65FE76}"/>
+    <hyperlink ref="K5" r:id="rId2" display="https://www.encodeproject.org/atac-seq/" xr:uid="{AC952ABC-3176-A547-9712-3B4F0E65FE76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QC-template-ChIP-seq.xlsx
+++ b/QC-template-ChIP-seq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/hm1412_ic_ac_uk/Documents/Cebola-lab-Hannah/GitHub/ChIPmentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{1F1E5FFD-D1C0-6744-907C-1C5D9B51E855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4E04B8F9-7780-9F4E-A57D-2A4C10D61823}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{1F1E5FFD-D1C0-6744-907C-1C5D9B51E855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9B97C0A3-4B4B-5B4B-B7C4-8FC7E351FEE9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{9913FB4D-1F40-F148-BEC8-326FF812BE85}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>The ENCODE recommended values are highlighted in yellow.</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>% duplicates (optical)</t>
+  </si>
+  <si>
+    <t>% removed during trimming</t>
   </si>
 </sst>
 </file>
@@ -165,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -362,6 +365,17 @@
         <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -413,6 +427,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -425,13 +442,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -747,217 +757,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46941888-A80E-A442-A25B-73E78E67829C}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="2" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" s="13" customFormat="1" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="31"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" s="13" customFormat="1" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="8" t="s">
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="K5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="L5" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
-      <c r="C6" s="18"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
       <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
-      <c r="C7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
-      <c r="C8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
-      <c r="C9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="18"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="20"/>
-      <c r="C12" s="22"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{6FE6D914-53E2-2A46-AA37-62459A0E338F}"/>
-    <hyperlink ref="K5" r:id="rId2" display="https://www.encodeproject.org/atac-seq/" xr:uid="{AC952ABC-3176-A547-9712-3B4F0E65FE76}"/>
+    <hyperlink ref="L5" r:id="rId2" display="https://www.encodeproject.org/atac-seq/" xr:uid="{AC952ABC-3176-A547-9712-3B4F0E65FE76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QC-template-ChIP-seq.xlsx
+++ b/QC-template-ChIP-seq.xlsx
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46941888-A80E-A442-A25B-73E78E67829C}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/QC-template-ChIP-seq.xlsx
+++ b/QC-template-ChIP-seq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/hm1412_ic_ac_uk/Documents/Cebola-lab-Hannah/GitHub/ChIPmentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{1F1E5FFD-D1C0-6744-907C-1C5D9B51E855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9B97C0A3-4B4B-5B4B-B7C4-8FC7E351FEE9}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="8_{1F1E5FFD-D1C0-6744-907C-1C5D9B51E855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B804C828-9078-7D45-A81A-BE5D6F167175}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{9913FB4D-1F40-F148-BEC8-326FF812BE85}"/>
   </bookViews>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>The ENCODE recommended values are highlighted in yellow.</t>
   </si>
   <si>
-    <t>PCR bottleneck coefficients</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sample </t>
   </si>
   <si>
@@ -51,12 +48,6 @@
     <t>NFR (non-redundant fraction)</t>
   </si>
   <si>
-    <t>PBC1</t>
-  </si>
-  <si>
-    <t>PBC2</t>
-  </si>
-  <si>
     <t>FRiP score</t>
   </si>
   <si>
@@ -70,9 +61,6 @@
   </si>
   <si>
     <t>https://www.encodeproject.org/chip-seq/histone/</t>
-  </si>
-  <si>
-    <t>&gt;10</t>
   </si>
   <si>
     <t xml:space="preserve">20M (narrow), 45M (broad) </t>
@@ -141,8 +129,9 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -168,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -226,7 +215,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
       <top style="medium">
         <color theme="1"/>
       </top>
@@ -234,17 +225,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
@@ -275,15 +255,6 @@
       <right style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="1"/>
@@ -327,17 +298,6 @@
       </left>
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -383,65 +343,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -757,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46941888-A80E-A442-A25B-73E78E67829C}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,214 +722,182 @@
     <col min="6" max="6" width="22.5" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>18</v>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>14</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" s="12" customFormat="1" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" s="13" customFormat="1" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16" t="s">
+      <c r="I5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="J5" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{6FE6D914-53E2-2A46-AA37-62459A0E338F}"/>
-    <hyperlink ref="L5" r:id="rId2" display="https://www.encodeproject.org/atac-seq/" xr:uid="{AC952ABC-3176-A547-9712-3B4F0E65FE76}"/>
+    <hyperlink ref="J5" r:id="rId2" display="https://www.encodeproject.org/atac-seq/" xr:uid="{AC952ABC-3176-A547-9712-3B4F0E65FE76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QC-template-ChIP-seq.xlsx
+++ b/QC-template-ChIP-seq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/hm1412_ic_ac_uk/Documents/Cebola-lab-Hannah/GitHub/ChIPmentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="8_{1F1E5FFD-D1C0-6744-907C-1C5D9B51E855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B804C828-9078-7D45-A81A-BE5D6F167175}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{1F1E5FFD-D1C0-6744-907C-1C5D9B51E855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{16165034-1932-4146-A758-0454640C90C7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{9913FB4D-1F40-F148-BEC8-326FF812BE85}"/>
   </bookViews>
@@ -72,19 +72,19 @@
     <t>See this link</t>
   </si>
   <si>
-    <t>% of mapped fragments</t>
-  </si>
-  <si>
-    <t>Total number of sequenced fragments</t>
-  </si>
-  <si>
-    <t>Total number of uniquely mapped fragments (after removing duplicates)</t>
-  </si>
-  <si>
-    <t>% duplicates (optical)</t>
-  </si>
-  <si>
     <t>% removed during trimming</t>
+  </si>
+  <si>
+    <t>Total number of reads</t>
+  </si>
+  <si>
+    <t>Total number of mapped reads (%)</t>
+  </si>
+  <si>
+    <t>% duplicates</t>
+  </si>
+  <si>
+    <t>Total number of uniquely mapped reads (after removing duplicates)</t>
   </si>
 </sst>
 </file>
@@ -385,13 +385,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46941888-A80E-A442-A25B-73E78E67829C}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -740,14 +740,14 @@
       <c r="A3" s="3"/>
       <c r="B3" s="22"/>
       <c r="C3" s="23"/>
-      <c r="D3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>14</v>
+      <c r="F3" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -762,11 +762,11 @@
         <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="8" t="s">
         <v>2</v>
       </c>
@@ -798,7 +798,7 @@
       <c r="I5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
     </row>
